--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\eclipse-workspace\via\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80B93B-DA5B-42AE-A5A6-6C51EE9DFB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD083E5-5B8A-4245-9B04-2E2D5C9F065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22AA1689-6D11-443E-A641-E1876C776B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{22AA1689-6D11-443E-A641-E1876C776B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>email</t>
   </si>
@@ -106,9 +106,6 @@
     <t>9034903894</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>me</t>
   </si>
   <si>
@@ -182,6 +179,51 @@
   </si>
   <si>
     <t>TC number</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>tc_12</t>
+  </si>
+  <si>
+    <t>tc_11</t>
+  </si>
+  <si>
+    <t>tc_09</t>
+  </si>
+  <si>
+    <t>tc_08</t>
+  </si>
+  <si>
+    <t>tc_07</t>
+  </si>
+  <si>
+    <t>tc_06</t>
+  </si>
+  <si>
+    <t>tc_05</t>
+  </si>
+  <si>
+    <t>tc_04</t>
+  </si>
+  <si>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>tc_02</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>tc_10</t>
+  </si>
+  <si>
+    <t>testreset123</t>
+  </si>
+  <si>
+    <t>soyos47616@carpetd.com</t>
   </si>
 </sst>
 </file>
@@ -570,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC1A89-727A-4FA2-AC4C-E315A7FFFD08}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -598,7 +640,7 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,7 +759,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +776,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,7 +785,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,7 +815,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,7 +845,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,91 +878,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
+      <c r="D2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\eclipse-workspace\via\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD083E5-5B8A-4245-9B04-2E2D5C9F065B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F4BD42-CAE1-46AD-803E-6AC70C763595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{22AA1689-6D11-443E-A641-E1876C776B5D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>email</t>
   </si>
@@ -52,12 +52,6 @@
     <t>testingdemo111gmail.com</t>
   </si>
   <si>
-    <t>testingdemo11@gmail.com</t>
-  </si>
-  <si>
-    <t>9686396734</t>
-  </si>
-  <si>
     <t>7689456734</t>
   </si>
   <si>
@@ -220,10 +214,13 @@
     <t>tc_10</t>
   </si>
   <si>
-    <t>testreset123</t>
-  </si>
-  <si>
-    <t>soyos47616@carpetd.com</t>
+    <t>viatestingdemo22@gmail.com</t>
+  </si>
+  <si>
+    <t>9672352991</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
@@ -613,7 +610,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -640,12 +637,12 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -654,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,15 +719,15 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -739,44 +736,44 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,7 +782,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -797,45 +794,45 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -845,7 +842,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +860,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,143 +875,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwa\eclipse-workspace\via\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F4BD42-CAE1-46AD-803E-6AC70C763595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D42B4C-996B-4A8A-AE19-DAEF362753C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{22AA1689-6D11-443E-A641-E1876C776B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22AA1689-6D11-443E-A641-E1876C776B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>email</t>
   </si>
@@ -208,19 +208,16 @@
     <t>tc_02</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>tc_10</t>
   </si>
   <si>
-    <t>viatestingdemo22@gmail.com</t>
-  </si>
-  <si>
-    <t>9672352991</t>
-  </si>
-  <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>viatestingdemo55@gmail.com</t>
+  </si>
+  <si>
+    <t>7278867991</t>
   </si>
 </sst>
 </file>
@@ -609,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CC1A89-727A-4FA2-AC4C-E315A7FFFD08}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,10 +880,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
@@ -894,10 +891,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
@@ -905,10 +902,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
@@ -916,32 +913,24 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="D5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="D6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -949,54 +938,44 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="D9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="D10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
@@ -1004,17 +983,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0599C373-815C-4059-B226-2A24F26BF21B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>